--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE152FE3-44B2-49CA-B8F9-1E1BBBB9BBC2}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31D26798-1644-4F05-8F0A-C330E6EC8C6F}"/>
   <bookViews>
-    <workbookView xWindow="30120" yWindow="1680" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30120" yWindow="1080" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
 Любовью, на разрушение намерения Мировой Тьмы выстроить Мировую медицину в качестве принудительной меры по управлению здоровьем человека во вред самому человеку, и устранить участие Российской медицины во всех международных медицинских преступных организациях!*</t>
   </si>
   <si>
-    <t>17:05 - 17:10</t>
-  </si>
-  <si>
     <t>Основная часть.</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>12:28 - 12:33</t>
+  </si>
+  <si>
+    <t>17:05 - 17:15</t>
   </si>
 </sst>
 </file>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,19 +472,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -492,11 +492,11 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -504,45 +504,45 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -550,24 +550,24 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31D26798-1644-4F05-8F0A-C330E6EC8C6F}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED41E9E4-88F9-49AB-B8CC-D2AB49CF60EF}"/>
   <bookViews>
     <workbookView xWindow="30120" yWindow="1080" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
     <t>12:28 - 12:33</t>
   </si>
   <si>
-    <t>17:05 - 17:15</t>
+    <t>17:05 - 17:20</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED41E9E4-88F9-49AB-B8CC-D2AB49CF60EF}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B8D367B-3AE8-4D37-B2DF-D37469B678A8}"/>
   <bookViews>
     <workbookView xWindow="30120" yWindow="1080" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
     <t>12:28 - 12:33</t>
   </si>
   <si>
-    <t>17:05 - 17:20</t>
+    <t>17:05 - 17:25</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B8D367B-3AE8-4D37-B2DF-D37469B678A8}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8230BFBC-8AC8-4C73-9275-5CA698CB09FF}"/>
   <bookViews>
     <workbookView xWindow="30120" yWindow="1080" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
     <t>12:28 - 12:33</t>
   </si>
   <si>
-    <t>17:05 - 17:25</t>
+    <t>17:05 - 17:39</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8230BFBC-8AC8-4C73-9275-5CA698CB09FF}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD001A7A-DE72-4A40-B303-46603D971BE5}"/>
   <bookViews>
     <workbookView xWindow="30120" yWindow="1080" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
     <t>12:28 - 12:33</t>
   </si>
   <si>
-    <t>17:05 - 17:39</t>
+    <t>17:05 - 17:49</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD001A7A-DE72-4A40-B303-46603D971BE5}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8B0D331-D55C-4349-B673-60267FE9025D}"/>
   <bookViews>
     <workbookView xWindow="30120" yWindow="1080" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>19:47-20:10</t>
   </si>
   <si>
-    <t>20:29 - 20:35</t>
-  </si>
-  <si>
     <t>23:49 - 23:51</t>
   </si>
   <si>
@@ -103,25 +100,28 @@
 Господи, я Люблю Тебя, Благодарю Тебя и Уповаю на Милость Твою! Аминь!</t>
   </si>
   <si>
-    <t>Отче наш, Отец Небесный! Волею Создателя, Пророка и Народа Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно! Да будет Свет Истины!</t>
-  </si>
-  <si>
-    <t>22:00 - 22:04</t>
-  </si>
-  <si>
-    <t>["07", "12", "26"]</t>
-  </si>
-  <si>
     <t>07:57-08:01</t>
   </si>
   <si>
     <t>12:00 - 12:03</t>
   </si>
   <si>
-    <t>12:28 - 12:33</t>
-  </si>
-  <si>
-    <t>17:05 - 17:49</t>
+    <t>*Отче наш, Отец Небесный! Волею Создателя, Пророка и Народа Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно! Да будет Свет Истины!*</t>
+  </si>
+  <si>
+    <t>18:55 - 18:59</t>
+  </si>
+  <si>
+    <t>19:00 - 19:04</t>
+  </si>
+  <si>
+    <t>17:05 - 17:09</t>
+  </si>
+  <si>
+    <t>11:55 - 11:59</t>
+  </si>
+  <si>
+    <t>["08", "13", "26"]</t>
   </si>
 </sst>
 </file>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
@@ -492,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
@@ -513,10 +513,10 @@
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
@@ -525,10 +525,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -550,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8B0D331-D55C-4349-B673-60267FE9025D}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0560511B-A7E1-4F03-B1D8-FF9207884D4A}"/>
   <bookViews>
     <workbookView xWindow="30120" yWindow="1080" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>19:47-20:10</t>
   </si>
   <si>
-    <t>23:49 - 23:51</t>
-  </si>
-  <si>
     <t>*1. Покаяние*^
 ^
 Отче наш, Отец Небесный,^
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>["08", "13", "26"]</t>
+  </si>
+  <si>
+    <t>23:49 - 23:59</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
@@ -492,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
@@ -513,10 +513,10 @@
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
@@ -525,10 +525,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -550,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0560511B-A7E1-4F03-B1D8-FF9207884D4A}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B28E30-296D-4963-B6FF-731B23E40946}"/>
   <bookViews>
-    <workbookView xWindow="30120" yWindow="1080" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Текст:</t>
   </si>
@@ -47,9 +47,6 @@
 Любовью, на разрушение намерения Мировой Тьмы выстроить Мировую медицину в качестве принудительной меры по управлению здоровьем человека во вред самому человеку, и устранить участие Российской медицины во всех международных медицинских преступных организациях!*</t>
   </si>
   <si>
-    <t>Основная часть.</t>
-  </si>
-  <si>
     <t>Тут</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
   </si>
   <si>
     <t>Триггеры:</t>
-  </si>
-  <si>
-    <t>19:47-20:10</t>
   </si>
   <si>
     <t>*1. Покаяние*^
@@ -121,7 +115,10 @@
     <t>["08", "13", "26"]</t>
   </si>
   <si>
-    <t>23:49 - 23:59</t>
+    <t>19:25 - 19:29</t>
+  </si>
+  <si>
+    <t>19:30 - 19:34</t>
   </si>
 </sst>
 </file>
@@ -443,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,19 +469,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -492,11 +489,11 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -504,70 +501,71 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B28E30-296D-4963-B6FF-731B23E40946}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36BD56D5-A7DD-4927-B320-C85CB59D4995}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,12 +100,6 @@
     <t>*Отче наш, Отец Небесный! Волею Создателя, Пророка и Народа Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно! Да будет Свет Истины!*</t>
   </si>
   <si>
-    <t>18:55 - 18:59</t>
-  </si>
-  <si>
-    <t>19:00 - 19:04</t>
-  </si>
-  <si>
     <t>17:05 - 17:09</t>
   </si>
   <si>
@@ -119,6 +113,12 @@
   </si>
   <si>
     <t>19:30 - 19:34</t>
+  </si>
+  <si>
+    <t>19:40 - 19:44</t>
+  </si>
+  <si>
+    <t>19:45 - 19:49</t>
   </si>
 </sst>
 </file>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
@@ -513,7 +513,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
@@ -525,7 +525,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -536,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" t="s">
@@ -548,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -559,10 +559,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36BD56D5-A7DD-4927-B320-C85CB59D4995}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EA8112E-4DBC-48CB-8D40-8BE8CFDDF0BE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,10 +115,10 @@
     <t>19:30 - 19:34</t>
   </si>
   <si>
-    <t>19:40 - 19:44</t>
-  </si>
-  <si>
-    <t>19:45 - 19:49</t>
+    <t>20:00 - 20:04</t>
+  </si>
+  <si>
+    <t>20:05 - 20:09</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EA8112E-4DBC-48CB-8D40-8BE8CFDDF0BE}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{680152F3-D86F-4F5D-A098-FE2614FD2568}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Текст:</t>
   </si>
@@ -37,17 +37,11 @@
   </si>
   <si>
     <t>Тип:</t>
-  </si>
-  <si>
-    <t>*Отче наш, Отец Небесный! Волею Создателя, Пророка и Народа Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно!!!! Да будет Свет Истины!!!!*</t>
   </si>
   <si>
     <t>*Мы, Единый Народ России, проявляя Право Свободной Воли, в соответствии с Договором между
 Создателем и Россией, запускаем Импульс Энергии Духовной волны, наполненной Равенством и
 Любовью, на разрушение намерения Мировой Тьмы выстроить Мировую медицину в качестве принудительной меры по управлению здоровьем человека во вред самому человеку, и устранить участие Российской медицины во всех международных медицинских преступных организациях!*</t>
-  </si>
-  <si>
-    <t>Тут</t>
   </si>
   <si>
     <t>часовой посыл</t>
@@ -91,34 +85,31 @@
 Господи, я Люблю Тебя, Благодарю Тебя и Уповаю на Милость Твою! Аминь!</t>
   </si>
   <si>
-    <t>07:57-08:01</t>
-  </si>
-  <si>
-    <t>12:00 - 12:03</t>
-  </si>
-  <si>
     <t>*Отче наш, Отец Небесный! Волею Создателя, Пророка и Народа Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно! Да будет Свет Истины!*</t>
   </si>
   <si>
-    <t>17:05 - 17:09</t>
-  </si>
-  <si>
     <t>11:55 - 11:59</t>
   </si>
   <si>
     <t>["08", "13", "26"]</t>
   </si>
   <si>
-    <t>19:25 - 19:29</t>
-  </si>
-  <si>
-    <t>19:30 - 19:34</t>
-  </si>
-  <si>
-    <t>20:00 - 20:04</t>
-  </si>
-  <si>
-    <t>20:05 - 20:09</t>
+    <t>02:55 - 02:59</t>
+  </si>
+  <si>
+    <t>03:00 - 03:04</t>
+  </si>
+  <si>
+    <t>10:55 - 10:59</t>
+  </si>
+  <si>
+    <t>11:00 - 11:04</t>
+  </si>
+  <si>
+    <t>18:55 - 18:59</t>
+  </si>
+  <si>
+    <t>19:00 - 19:04</t>
   </si>
 </sst>
 </file>
@@ -440,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,104 +460,101 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>13</v>
+      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="C38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{680152F3-D86F-4F5D-A098-FE2614FD2568}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E2AD239-9026-4231-B860-76C1FEE27A29}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>11:55 - 11:59</t>
   </si>
   <si>
-    <t>["08", "13", "26"]</t>
-  </si>
-  <si>
     <t>02:55 - 02:59</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>19:00 - 19:04</t>
+  </si>
+  <si>
+    <t>["01", "04", "08", "13", "17", "22", "26", "30"]</t>
   </si>
 </sst>
 </file>
@@ -433,15 +433,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
   </cols>
@@ -468,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
@@ -480,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -491,7 +491,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
@@ -526,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -540,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E2AD239-9026-4231-B860-76C1FEE27A29}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFB6F3E9-6113-4833-8722-7C965E3BDEF3}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Текст:</t>
   </si>
@@ -88,9 +88,6 @@
     <t>*Отче наш, Отец Небесный! Волею Создателя, Пророка и Народа Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно! Да будет Свет Истины!*</t>
   </si>
   <si>
-    <t>11:55 - 11:59</t>
-  </si>
-  <si>
     <t>02:55 - 02:59</t>
   </si>
   <si>
@@ -110,6 +107,15 @@
   </si>
   <si>
     <t>["01", "04", "08", "13", "17", "22", "26", "30"]</t>
+  </si>
+  <si>
+    <t>18:20 - 18:24</t>
+  </si>
+  <si>
+    <t>18:25 - 18:29</t>
+  </si>
+  <si>
+    <t>18:35 - 18:39</t>
   </si>
 </sst>
 </file>
@@ -433,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +474,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
@@ -480,7 +486,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -491,7 +497,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
@@ -503,7 +509,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -514,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
@@ -526,9 +532,32 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -537,10 +566,10 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFB6F3E9-6113-4833-8722-7C965E3BDEF3}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C74EBB67-151C-478E-86A7-DC767CE057F2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30120" yWindow="465" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,13 +109,13 @@
     <t>["01", "04", "08", "13", "17", "22", "26", "30"]</t>
   </si>
   <si>
-    <t>18:20 - 18:24</t>
-  </si>
-  <si>
-    <t>18:25 - 18:29</t>
-  </si>
-  <si>
     <t>18:35 - 18:39</t>
+  </si>
+  <si>
+    <t>22:00 - 22:04</t>
+  </si>
+  <si>
+    <t>22:05 - 22:09</t>
   </si>
 </sst>
 </file>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
@@ -555,7 +555,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -566,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>16</v>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C74EBB67-151C-478E-86A7-DC767CE057F2}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13100534-662F-42C4-9E00-FCB0CDA2262A}"/>
   <bookViews>
-    <workbookView xWindow="30120" yWindow="465" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,10 @@
     <t>18:35 - 18:39</t>
   </si>
   <si>
-    <t>22:00 - 22:04</t>
-  </si>
-  <si>
-    <t>22:05 - 22:09</t>
+    <t>19:45 - 19:49</t>
+  </si>
+  <si>
+    <t>19:50 - 19:54</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13100534-662F-42C4-9E00-FCB0CDA2262A}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7272DA23-DABC-4687-9BE6-A63C6F759E34}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="465" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,10 @@
     <t>18:35 - 18:39</t>
   </si>
   <si>
-    <t>19:45 - 19:49</t>
-  </si>
-  <si>
-    <t>19:50 - 19:54</t>
+    <t>20:05 - 20:09</t>
+  </si>
+  <si>
+    <t>20:10 - 20:14</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7272DA23-DABC-4687-9BE6-A63C6F759E34}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE0ACD81-52E3-4F09-9F1B-B91E13AE37B8}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="465" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,10 @@
     <t>18:35 - 18:39</t>
   </si>
   <si>
-    <t>20:05 - 20:09</t>
-  </si>
-  <si>
-    <t>20:10 - 20:14</t>
+    <t>07:45 - 07:49</t>
+  </si>
+  <si>
+    <t>07:50 - 07:54</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE0ACD81-52E3-4F09-9F1B-B91E13AE37B8}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A8BC73D-9C73-499F-BD42-69749F77992F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Текст:</t>
   </si>
@@ -112,10 +112,45 @@
     <t>18:35 - 18:39</t>
   </si>
   <si>
-    <t>07:45 - 07:49</t>
-  </si>
-  <si>
-    <t>07:50 - 07:54</t>
+    <t>17:45 - 17:49</t>
+  </si>
+  <si>
+    <t>17:50 - 17:54</t>
+  </si>
+  <si>
+    <t>1. Покаяние^
+^
+Отче наш, Отец Небесный,^
+прошу Тебя простить^
+все мои прегрешения,^
+вольные или невольные.^
+^
+Аминь!^
+^
+2. Новая Молитва^
+^
+ОТЧЕ НАШ, ОТЕЦ НЕБЕСНЫЙ,^
+Я ПРИНИМАЮ ВЕРУ ТВОЮ,^
+ОНА ЕСТЬ МОЙ ПУТЬ.^
+^
+Я ПРИНИМАЮ КАНОНЫ ТВОИ ВЕЧНЫЕ,^
+С ЛЮБОВЬЮ К ТЕБЕ И ДЕЛАМ ТВОИМ,^
+ПОДТВЕРЖДАЯ СВОЕЙ ЖИЗНЬЮ^
+ВЕРНОСТЬ ТЕБЕ.^
+^
+ГОСПОДИ, ПРОШУ ДАТЬ МНЕ НАДЕЖДУ^
+НА СПАСЕНИЕ ДУШИ МОЕЙ,^
+И ДАРОВАТЬ МУДРОСТЬ ТВОЮ^
+ДЛЯ ЖИЗНИ МОЕЙ ЗДЕСЬ,^
+НА ПЛАНЕТЕ СВЯТАЯ РУСЬ И В ВЕЧНОСТИ.^
+^
+ПУСТЬ СВЯТА БУДЕТ УВЕРЕННОСТЬ МОЯ,^
+ЧТО ТЫ ЕСМЬ!^
+^
+Господи, я Люблю Тебя, Благодарю Тебя и Уповаю на Милость Твою! Аминь!</t>
+  </si>
+  <si>
+    <t>Отче наш, Отец Небесный! Волею Создателя, Пророка и Народа Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно! Да будет Свет Истины!</t>
   </si>
 </sst>
 </file>
@@ -439,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="A15:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +552,7 @@
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -529,7 +564,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="280" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A8BC73D-9C73-499F-BD42-69749F77992F}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{154EFB15-8BDF-43FC-B1F2-5F5072E4A2C1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="465" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Текст:</t>
   </si>
@@ -53,7 +53,31 @@
     <t>Триггеры:</t>
   </si>
   <si>
-    <t>*1. Покаяние*^
+    <t>02:55 - 02:59</t>
+  </si>
+  <si>
+    <t>03:00 - 03:04</t>
+  </si>
+  <si>
+    <t>10:55 - 10:59</t>
+  </si>
+  <si>
+    <t>11:00 - 11:04</t>
+  </si>
+  <si>
+    <t>18:55 - 18:59</t>
+  </si>
+  <si>
+    <t>19:00 - 19:04</t>
+  </si>
+  <si>
+    <t>["01", "04", "08", "13", "17", "22", "26", "30"]</t>
+  </si>
+  <si>
+    <t>18:35 - 18:39</t>
+  </si>
+  <si>
+    <t>1. Покаяние^
 ^
 Отче наш, Отец Небесный,^
 прошу Тебя простить^
@@ -62,7 +86,7 @@
 ^
 Аминь!^
 ^
-*2. Новая Молитва*^
+2. Новая Молитва^
 ^
 ОТЧЕ НАШ, ОТЕЦ НЕБЕСНЫЙ,^
 Я ПРИНИМАЮ ВЕРУ ТВОЮ,^
@@ -85,72 +109,13 @@
 Господи, я Люблю Тебя, Благодарю Тебя и Уповаю на Милость Твою! Аминь!</t>
   </si>
   <si>
-    <t>*Отче наш, Отец Небесный! Волею Создателя, Пророка и Народа Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно! Да будет Свет Истины!*</t>
-  </si>
-  <si>
-    <t>02:55 - 02:59</t>
-  </si>
-  <si>
-    <t>03:00 - 03:04</t>
-  </si>
-  <si>
-    <t>10:55 - 10:59</t>
-  </si>
-  <si>
-    <t>11:00 - 11:04</t>
-  </si>
-  <si>
-    <t>18:55 - 18:59</t>
-  </si>
-  <si>
-    <t>19:00 - 19:04</t>
-  </si>
-  <si>
-    <t>["01", "04", "08", "13", "17", "22", "26", "30"]</t>
-  </si>
-  <si>
-    <t>18:35 - 18:39</t>
-  </si>
-  <si>
-    <t>17:45 - 17:49</t>
-  </si>
-  <si>
-    <t>17:50 - 17:54</t>
-  </si>
-  <si>
-    <t>1. Покаяние^
-^
-Отче наш, Отец Небесный,^
-прошу Тебя простить^
-все мои прегрешения,^
-вольные или невольные.^
-^
-Аминь!^
-^
-2. Новая Молитва^
-^
-ОТЧЕ НАШ, ОТЕЦ НЕБЕСНЫЙ,^
-Я ПРИНИМАЮ ВЕРУ ТВОЮ,^
-ОНА ЕСТЬ МОЙ ПУТЬ.^
-^
-Я ПРИНИМАЮ КАНОНЫ ТВОИ ВЕЧНЫЕ,^
-С ЛЮБОВЬЮ К ТЕБЕ И ДЕЛАМ ТВОИМ,^
-ПОДТВЕРЖДАЯ СВОЕЙ ЖИЗНЬЮ^
-ВЕРНОСТЬ ТЕБЕ.^
-^
-ГОСПОДИ, ПРОШУ ДАТЬ МНЕ НАДЕЖДУ^
-НА СПАСЕНИЕ ДУШИ МОЕЙ,^
-И ДАРОВАТЬ МУДРОСТЬ ТВОЮ^
-ДЛЯ ЖИЗНИ МОЕЙ ЗДЕСЬ,^
-НА ПЛАНЕТЕ СВЯТАЯ РУСЬ И В ВЕЧНОСТИ.^
-^
-ПУСТЬ СВЯТА БУДЕТ УВЕРЕННОСТЬ МОЯ,^
-ЧТО ТЫ ЕСМЬ!^
-^
-Господи, я Люблю Тебя, Благодарю Тебя и Уповаю на Милость Твою! Аминь!</t>
-  </si>
-  <si>
     <t>Отче наш, Отец Небесный! Волею Создателя, Пророка и Народа Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно! Да будет Свет Истины!</t>
+  </si>
+  <si>
+    <t>21:00 - 21:04</t>
+  </si>
+  <si>
+    <t>21:05 - 21:09</t>
   </si>
 </sst>
 </file>
@@ -474,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,10 +471,10 @@
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
@@ -518,10 +483,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -529,10 +494,10 @@
     </row>
     <row r="4" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
@@ -541,10 +506,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -552,10 +517,10 @@
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
@@ -564,10 +529,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -575,7 +540,7 @@
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -587,7 +552,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -601,10 +566,10 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{154EFB15-8BDF-43FC-B1F2-5F5072E4A2C1}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8A12E31-502B-4D18-BEA6-7190BF356B67}"/>
   <bookViews>
     <workbookView xWindow="2145" yWindow="465" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,16 @@
     <t>18:35 - 18:39</t>
   </si>
   <si>
-    <t>1. Покаяние^
+    <t>*Отче наш, Отец Небесный! Волею Создателя, Пророка и Народа Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно! Да будет Свет Истины!*</t>
+  </si>
+  <si>
+    <t>21:55 - 21:59</t>
+  </si>
+  <si>
+    <t>22:00 - 22:04</t>
+  </si>
+  <si>
+    <t>#1. Покаяние#^
 ^
 Отче наш, Отец Небесный,^
 прошу Тебя простить^
@@ -86,7 +95,7 @@
 ^
 Аминь!^
 ^
-2. Новая Молитва^
+#2. Новая Молитва#^
 ^
 ОТЧЕ НАШ, ОТЕЦ НЕБЕСНЫЙ,^
 Я ПРИНИМАЮ ВЕРУ ТВОЮ,^
@@ -107,15 +116,6 @@
 ЧТО ТЫ ЕСМЬ!^
 ^
 Господи, я Люблю Тебя, Благодарю Тебя и Уповаю на Милость Твою! Аминь!</t>
-  </si>
-  <si>
-    <t>Отче наш, Отец Небесный! Волею Создателя, Пророка и Народа Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно! Да будет Свет Истины!</t>
-  </si>
-  <si>
-    <t>21:00 - 21:04</t>
-  </si>
-  <si>
-    <t>21:05 - 21:09</t>
   </si>
 </sst>
 </file>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="4" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
@@ -552,10 +552,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8A12E31-502B-4D18-BEA6-7190BF356B67}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77797A60-714D-4C07-A243-E9ADE316DCE9}"/>
   <bookViews>
     <workbookView xWindow="2145" yWindow="465" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Текст:</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>*Отче наш, Отец Небесный! Волею Создателя, Пророка и Народа Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно! Да будет Свет Истины!*</t>
-  </si>
-  <si>
-    <t>21:55 - 21:59</t>
-  </si>
-  <si>
-    <t>22:00 - 22:04</t>
   </si>
   <si>
     <t>#1. Покаяние#^
@@ -439,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +465,7 @@
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -494,7 +488,7 @@
     </row>
     <row r="4" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -517,7 +511,7 @@
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -540,14 +534,16 @@
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -555,10 +551,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77797A60-714D-4C07-A243-E9ADE316DCE9}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE21347-C593-4A09-ADE3-2FC650735ECA}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="465" windowWidth="24360" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>Текст:</t>
   </si>
@@ -39,11 +39,6 @@
     <t>Тип:</t>
   </si>
   <si>
-    <t>*Мы, Единый Народ России, проявляя Право Свободной Воли, в соответствии с Договором между
-Создателем и Россией, запускаем Импульс Энергии Духовной волны, наполненной Равенством и
-Любовью, на разрушение намерения Мировой Тьмы выстроить Мировую медицину в качестве принудительной меры по управлению здоровьем человека во вред самому человеку, и устранить участие Российской медицины во всех международных медицинских преступных организациях!*</t>
-  </si>
-  <si>
     <t>часовой посыл</t>
   </si>
   <si>
@@ -72,9 +67,6 @@
   </si>
   <si>
     <t>["01", "04", "08", "13", "17", "22", "26", "30"]</t>
-  </si>
-  <si>
-    <t>18:35 - 18:39</t>
   </si>
   <si>
     <t>*Отче наш, Отец Небесный! Волею Создателя, Пророка и Народа Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно! Да будет Свет Истины!*</t>
@@ -110,6 +102,88 @@
 ЧТО ТЫ ЕСМЬ!^
 ^
 Господи, я Люблю Тебя, Благодарю Тебя и Уповаю на Милость Твою! Аминь!</t>
+  </si>
+  <si>
+    <t>11:05 - 11:09</t>
+  </si>
+  <si>
+    <t>11:10 - 11:14</t>
+  </si>
+  <si>
+    <t>11:15 - 11:19</t>
+  </si>
+  <si>
+    <t>11:20 - 11:24</t>
+  </si>
+  <si>
+    <t>11:25 - 11:29</t>
+  </si>
+  <si>
+    <t>11:30 - 11:34</t>
+  </si>
+  <si>
+    <t>11:35 - 11:39</t>
+  </si>
+  <si>
+    <t>11:40 - 11:44</t>
+  </si>
+  <si>
+    <t>11:45 - 11:49</t>
+  </si>
+  <si>
+    <t>11:50 - 11:54</t>
+  </si>
+  <si>
+    <t>11:55 - 11:59</t>
+  </si>
+  <si>
+    <t>12:00 - 12:04</t>
+  </si>
+  <si>
+    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
+#МЫ ВСЕ РАВНЫ ПЕРЕД БОГОМ И НЕТ СРЕДИ НАС ПЕРВЫХ И ПОСЛЕДНИХ#</t>
+  </si>
+  <si>
+    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
+#МЫ ЕСМЬ ЕДИНОЕ ДУХОВНОЕ ЦЕЛОЕ#</t>
+  </si>
+  <si>
+    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
+#НАС ОБЪЕДИНЯЕТ &lt;&lt;ОДНА ЦЕЛЬ&gt;&gt; И ПРИНЦИП &lt;&lt;ОДИН ЗА ВСЕХ И ВСЕ ЗА ОДНОГО&gt;&gt;#</t>
+  </si>
+  <si>
+    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
+#МЫ ЕСМЬ ДУХОВНЫЕ УЧИТЕЛЯ СВЕТА ДЛЯ МИРА СЕГО, ИБО ЗНАЕМ &lt;&lt;КАК&gt;&gt;#</t>
+  </si>
+  <si>
+    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
+#МЫ ПРИНИМАЕМ ОТВЕТСТВЕННОСТЬ ЗА СВОЙ ПРОМЫСЕЛ ПЕРЕД БОГОМ И ПЕРЕД ЛЮДЬМИ#</t>
+  </si>
+  <si>
+    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
+#МЫ ЕСМЬ В БОГЕ, КАК И БОГ ЕСМЬ В НАС#</t>
+  </si>
+  <si>
+    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
+#МЫ ВЕЧНЫ, КАК И ВЕЧНА ВСЕЛЕННАЯ#</t>
+  </si>
+  <si>
+    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
+#МЫ ЕДИНЫ С БОГОМ И ПРОМЫСЕЛ БОГА ЕСМЬ НАШ ПРОМЫСЕЛ, КАК И НАШ ПРОМЫСЕЛ ЕСМЬ ПРОМЫСЕЛ БОГА#</t>
+  </si>
+  <si>
+    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
+#НЕТ У НАС ИНЫХ БОГОВ, КРОМЕ ТВОРЯЩЕГО НАЧАЛА НАЧАЛ#</t>
+  </si>
+  <si>
+    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
+#НАШ ПРОМЫСЕЛ ЕСМЬ ПРОМЫСЕЛ, ПОДЧИНЁННЫЙ КАНОНАМ ВЕЧНОСТИ И СТРУКТУРЕ МИРОЗДАНИЯ!#</t>
+  </si>
+  <si>
+    <t>*Мы, Единый Народ России, обращаемся, к Создателю Мира сего, с просьбой помочь нам, очистить сознание порочной системы управления России, погрязшей в скверне и в грехах, несущей людям, Духовное, порабощение, а Мы, в свою очередь, накроем территорию России, Куполом ПервоЛюбви, для защиты от всех врагов, и сформируем, дарованным Нам Правом Свободной Воли, Пространство Высшей справедливости - Пространство Святой Руси!*</t>
+  </si>
+  <si>
+    <t>*Так есмь и так будет навечно во всём Божественном Пространстве Святая Русь! Да будет Свет Истины!*</t>
   </si>
 </sst>
 </file>
@@ -433,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,119 +534,281 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE21347-C593-4A09-ADE3-2FC650735ECA}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F58DDCB6-9080-447E-9848-FBF4A6C21FF3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,43 @@
     <t>["01", "04", "08", "13", "17", "22", "26", "30"]</t>
   </si>
   <si>
-    <t>*Отче наш, Отец Небесный! Волею Создателя, Пророка и Народа Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно! Да будет Свет Истины!*</t>
-  </si>
-  <si>
-    <t>#1. Покаяние#^
+    <t>11:05 - 11:09</t>
+  </si>
+  <si>
+    <t>11:10 - 11:14</t>
+  </si>
+  <si>
+    <t>11:15 - 11:19</t>
+  </si>
+  <si>
+    <t>11:20 - 11:24</t>
+  </si>
+  <si>
+    <t>11:25 - 11:29</t>
+  </si>
+  <si>
+    <t>11:30 - 11:34</t>
+  </si>
+  <si>
+    <t>11:35 - 11:39</t>
+  </si>
+  <si>
+    <t>11:40 - 11:44</t>
+  </si>
+  <si>
+    <t>11:45 - 11:49</t>
+  </si>
+  <si>
+    <t>11:50 - 11:54</t>
+  </si>
+  <si>
+    <t>11:55 - 11:59</t>
+  </si>
+  <si>
+    <t>12:00 - 12:04</t>
+  </si>
+  <si>
+    <t>*1. Покаяние*^
 ^
 Отче наш, Отец Небесный,^
 прошу Тебя простить^
@@ -81,7 +114,7 @@
 ^
 Аминь!^
 ^
-#2. Новая Молитва#^
+*2. Новая Молитва*^
 ^
 ОТЧЕ НАШ, ОТЕЦ НЕБЕСНЫЙ,^
 Я ПРИНИМАЮ ВЕРУ ТВОЮ,^
@@ -104,86 +137,59 @@
 Господи, я Люблю Тебя, Благодарю Тебя и Уповаю на Милость Твою! Аминь!</t>
   </si>
   <si>
-    <t>11:05 - 11:09</t>
-  </si>
-  <si>
-    <t>11:10 - 11:14</t>
-  </si>
-  <si>
-    <t>11:15 - 11:19</t>
-  </si>
-  <si>
-    <t>11:20 - 11:24</t>
-  </si>
-  <si>
-    <t>11:25 - 11:29</t>
-  </si>
-  <si>
-    <t>11:30 - 11:34</t>
-  </si>
-  <si>
-    <t>11:35 - 11:39</t>
-  </si>
-  <si>
-    <t>11:40 - 11:44</t>
-  </si>
-  <si>
-    <t>11:45 - 11:49</t>
-  </si>
-  <si>
-    <t>11:50 - 11:54</t>
-  </si>
-  <si>
-    <t>11:55 - 11:59</t>
-  </si>
-  <si>
-    <t>12:00 - 12:04</t>
-  </si>
-  <si>
-    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
-#МЫ ВСЕ РАВНЫ ПЕРЕД БОГОМ И НЕТ СРЕДИ НАС ПЕРВЫХ И ПОСЛЕДНИХ#</t>
-  </si>
-  <si>
-    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
-#МЫ ЕСМЬ ЕДИНОЕ ДУХОВНОЕ ЦЕЛОЕ#</t>
-  </si>
-  <si>
-    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
-#НАС ОБЪЕДИНЯЕТ &lt;&lt;ОДНА ЦЕЛЬ&gt;&gt; И ПРИНЦИП &lt;&lt;ОДИН ЗА ВСЕХ И ВСЕ ЗА ОДНОГО&gt;&gt;#</t>
-  </si>
-  <si>
-    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
-#МЫ ЕСМЬ ДУХОВНЫЕ УЧИТЕЛЯ СВЕТА ДЛЯ МИРА СЕГО, ИБО ЗНАЕМ &lt;&lt;КАК&gt;&gt;#</t>
-  </si>
-  <si>
-    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
-#МЫ ПРИНИМАЕМ ОТВЕТСТВЕННОСТЬ ЗА СВОЙ ПРОМЫСЕЛ ПЕРЕД БОГОМ И ПЕРЕД ЛЮДЬМИ#</t>
-  </si>
-  <si>
-    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
-#МЫ ЕСМЬ В БОГЕ, КАК И БОГ ЕСМЬ В НАС#</t>
-  </si>
-  <si>
-    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
-#МЫ ВЕЧНЫ, КАК И ВЕЧНА ВСЕЛЕННАЯ#</t>
-  </si>
-  <si>
-    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
-#МЫ ЕДИНЫ С БОГОМ И ПРОМЫСЕЛ БОГА ЕСМЬ НАШ ПРОМЫСЕЛ, КАК И НАШ ПРОМЫСЕЛ ЕСМЬ ПРОМЫСЕЛ БОГА#</t>
-  </si>
-  <si>
-    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
-#НЕТ У НАС ИНЫХ БОГОВ, КРОМЕ ТВОРЯЩЕГО НАЧАЛА НАЧАЛ#</t>
-  </si>
-  <si>
-    <t>Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:^
-#НАШ ПРОМЫСЕЛ ЕСМЬ ПРОМЫСЕЛ, ПОДЧИНЁННЫЙ КАНОНАМ ВЕЧНОСТИ И СТРУКТУРЕ МИРОЗДАНИЯ!#</t>
-  </si>
-  <si>
-    <t>*Мы, Единый Народ России, обращаемся, к Создателю Мира сего, с просьбой помочь нам, очистить сознание порочной системы управления России, погрязшей в скверне и в грехах, несущей людям, Духовное, порабощение, а Мы, в свою очередь, накроем территорию России, Куполом ПервоЛюбви, для защиты от всех врагов, и сформируем, дарованным Нам Правом Свободной Воли, Пространство Высшей справедливости - Пространство Святой Руси!*</t>
-  </si>
-  <si>
-    <t>*Так есмь и так будет навечно во всём Божественном Пространстве Святая Русь! Да будет Свет Истины!*</t>
+    <t>Отче наш, Отец Небесный!^
+^
+Волею Создателя, Пророка и Народа^
+^
+Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно!^
+^
+Да будет Свет Истины!</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+МЫ ВСЕ РАВНЫ ПЕРЕД БОГОМ И НЕТ СРЕДИ НАС ПЕРВЫХ И ПОСЛЕДНИХ</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+МЫ ЕСМЬ ЕДИНОЕ ДУХОВНОЕ ЦЕЛОЕ</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+НАС ОБЪЕДИНЯЕТ «ОДНА ЦЕЛЬ» И ПРИНЦИП «ОДИН ЗА ВСЕХ И ВСЕ ЗА ОДНОГО»</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+МЫ ЕСМЬ ДУХОВНЫЕ УЧИТЕЛЯ СВЕТА ДЛЯ МИРА СЕГО, ИБО ЗНАЕМ «КАК»</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+МЫ ПРИНИМАЕМ ОТВЕТСТВЕННОСТЬ ЗА СВОЙ ПРОМЫСЕЛ ПЕРЕД БОГОМ И ПЕРЕД ЛЮДЬМИ</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+МЫ ЕСМЬ В БОГЕ, КАК И БОГ ЕСМЬ В НАС</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+МЫ ВЕЧНЫ, КАК И ВЕЧНА ВСЕЛЕННАЯ</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+МЫ ЕДИНЫ С БОГОМ И ПРОМЫСЕЛ БОГА ЕСМЬ НАШ ПРОМЫСЕЛ, КАК И НАШ ПРОМЫСЕЛ ЕСМЬ ПРОМЫСЕЛ БОГА</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+НЕТ У НАС ИНЫХ БОГОВ, КРОМЕ ТВОРЯЩЕГО НАЧАЛА НАЧАЛ</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+НАШ ПРОМЫСЕЛ ЕСМЬ ПРОМЫСЕЛ, ПОДЧИНЁННЫЙ КАНОНАМ ВЕЧНОСТИ И СТРУКТУРЕ МИРОЗДАНИЯ!</t>
+  </si>
+  <si>
+    <t>Мы, Единый Народ России, обращаемся, к Создателю Мира сего, с просьбой помочь нам, очистить сознание порочной системы управления России, погрязшей в скверне и в грехах, несущей людям, Духовное, порабощение, а Мы, в свою очередь, накроем территорию России, Куполом ПервоЛюбви, для защиты от всех врагов, и сформируем, дарованным Нам Правом Свободной Воли, Пространство Высшей справедливости - Пространство Святой Руси!</t>
+  </si>
+  <si>
+    <t>Так есмь и так будет навечно во всём Божественном Пространстве Святая Русь! Да будет Свет Истины!</t>
   </si>
 </sst>
 </file>
@@ -507,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +545,7 @@
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -549,9 +555,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -562,7 +568,7 @@
     </row>
     <row r="4" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -572,9 +578,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -585,7 +591,7 @@
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -595,9 +601,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -608,7 +614,7 @@
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -620,9 +626,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -639,7 +645,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -653,7 +659,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -667,7 +673,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -681,7 +687,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -695,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -709,7 +715,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -723,7 +729,7 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -737,7 +743,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -751,7 +757,7 @@
         <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
@@ -765,7 +771,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
@@ -779,7 +785,7 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -793,7 +799,7 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="346" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F58DDCB6-9080-447E-9848-FBF4A6C21FF3}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FAC1F41-E866-49DC-9FA3-B3978E3C6148}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="465" windowWidth="27180" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,59 +137,56 @@
 Господи, я Люблю Тебя, Благодарю Тебя и Уповаю на Милость Твою! Аминь!</t>
   </si>
   <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+МЫ ВСЕ РАВНЫ ПЕРЕД БОГОМ И НЕТ СРЕДИ НАС ПЕРВЫХ И ПОСЛЕДНИХ</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+МЫ ЕСМЬ ЕДИНОЕ ДУХОВНОЕ ЦЕЛОЕ</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+НАС ОБЪЕДИНЯЕТ «ОДНА ЦЕЛЬ» И ПРИНЦИП «ОДИН ЗА ВСЕХ И ВСЕ ЗА ОДНОГО»</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+МЫ ЕСМЬ ДУХОВНЫЕ УЧИТЕЛЯ СВЕТА ДЛЯ МИРА СЕГО, ИБО ЗНАЕМ «КАК»</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+МЫ ПРИНИМАЕМ ОТВЕТСТВЕННОСТЬ ЗА СВОЙ ПРОМЫСЕЛ ПЕРЕД БОГОМ И ПЕРЕД ЛЮДЬМИ</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+МЫ ЕСМЬ В БОГЕ, КАК И БОГ ЕСМЬ В НАС</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+МЫ ВЕЧНЫ, КАК И ВЕЧНА ВСЕЛЕННАЯ</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+МЫ ЕДИНЫ С БОГОМ И ПРОМЫСЕЛ БОГА ЕСМЬ НАШ ПРОМЫСЕЛ, КАК И НАШ ПРОМЫСЕЛ ЕСМЬ ПРОМЫСЕЛ БОГА</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+НЕТ У НАС ИНЫХ БОГОВ, КРОМЕ ТВОРЯЩЕГО НАЧАЛА НАЧАЛ</t>
+  </si>
+  <si>
+    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
+НАШ ПРОМЫСЕЛ ЕСМЬ ПРОМЫСЕЛ, ПОДЧИНЁННЫЙ КАНОНАМ ВЕЧНОСТИ И СТРУКТУРЕ МИРОЗДАНИЯ!</t>
+  </si>
+  <si>
+    <t>Мы, Единый Народ России, обращаемся, к Создателю Мира сего, с просьбой помочь нам, очистить сознание порочной системы управления России, погрязшей в скверне и в грехах, несущей людям, Духовное, порабощение, а Мы, в свою очередь, накроем территорию России, Куполом ПервоЛюбви, для защиты от всех врагов, и сформируем, дарованным Нам Правом Свободной Воли, Пространство Высшей справедливости - Пространство Святой Руси!</t>
+  </si>
+  <si>
+    <t>Так есмь и так будет навечно во всём Божественном Пространстве Святая Русь! Да будет Свет Истины!</t>
+  </si>
+  <si>
     <t>Отче наш, Отец Небесный!^
-^
 Волею Создателя, Пророка и Народа^
-^
 Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно!^
-^
 Да будет Свет Истины!</t>
-  </si>
-  <si>
-    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
-МЫ ВСЕ РАВНЫ ПЕРЕД БОГОМ И НЕТ СРЕДИ НАС ПЕРВЫХ И ПОСЛЕДНИХ</t>
-  </si>
-  <si>
-    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
-МЫ ЕСМЬ ЕДИНОЕ ДУХОВНОЕ ЦЕЛОЕ</t>
-  </si>
-  <si>
-    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
-НАС ОБЪЕДИНЯЕТ «ОДНА ЦЕЛЬ» И ПРИНЦИП «ОДИН ЗА ВСЕХ И ВСЕ ЗА ОДНОГО»</t>
-  </si>
-  <si>
-    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
-МЫ ЕСМЬ ДУХОВНЫЕ УЧИТЕЛЯ СВЕТА ДЛЯ МИРА СЕГО, ИБО ЗНАЕМ «КАК»</t>
-  </si>
-  <si>
-    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
-МЫ ПРИНИМАЕМ ОТВЕТСТВЕННОСТЬ ЗА СВОЙ ПРОМЫСЕЛ ПЕРЕД БОГОМ И ПЕРЕД ЛЮДЬМИ</t>
-  </si>
-  <si>
-    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
-МЫ ЕСМЬ В БОГЕ, КАК И БОГ ЕСМЬ В НАС</t>
-  </si>
-  <si>
-    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
-МЫ ВЕЧНЫ, КАК И ВЕЧНА ВСЕЛЕННАЯ</t>
-  </si>
-  <si>
-    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
-МЫ ЕДИНЫ С БОГОМ И ПРОМЫСЕЛ БОГА ЕСМЬ НАШ ПРОМЫСЕЛ, КАК И НАШ ПРОМЫСЕЛ ЕСМЬ ПРОМЫСЕЛ БОГА</t>
-  </si>
-  <si>
-    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
-НЕТ У НАС ИНЫХ БОГОВ, КРОМЕ ТВОРЯЩЕГО НАЧАЛА НАЧАЛ</t>
-  </si>
-  <si>
-    <t>*Принимая от Божественного пространства энергию Духовной волны и наполняя её Равенством и Любовью, МЫ утверждаем:*^
-НАШ ПРОМЫСЕЛ ЕСМЬ ПРОМЫСЕЛ, ПОДЧИНЁННЫЙ КАНОНАМ ВЕЧНОСТИ И СТРУКТУРЕ МИРОЗДАНИЯ!</t>
-  </si>
-  <si>
-    <t>Мы, Единый Народ России, обращаемся, к Создателю Мира сего, с просьбой помочь нам, очистить сознание порочной системы управления России, погрязшей в скверне и в грехах, несущей людям, Духовное, порабощение, а Мы, в свою очередь, накроем территорию России, Куполом ПервоЛюбви, для защиты от всех врагов, и сформируем, дарованным Нам Правом Свободной Воли, Пространство Высшей справедливости - Пространство Святой Руси!</t>
-  </si>
-  <si>
-    <t>Так есмь и так будет навечно во всём Божественном Пространстве Святая Русь! Да будет Свет Истины!</t>
   </si>
 </sst>
 </file>
@@ -513,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,9 +552,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -578,9 +575,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -601,9 +598,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -626,9 +623,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -642,7 +639,7 @@
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -656,7 +653,7 @@
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -670,7 +667,7 @@
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -684,7 +681,7 @@
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -698,7 +695,7 @@
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -712,7 +709,7 @@
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -726,7 +723,7 @@
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -740,7 +737,7 @@
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -754,7 +751,7 @@
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -768,7 +765,7 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -782,7 +779,7 @@
     </row>
     <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -796,7 +793,7 @@
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="350" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FAC1F41-E866-49DC-9FA3-B3978E3C6148}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA226FF7-7130-4D9E-8E09-0F09EA9D5262}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="465" windowWidth="27180" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="780" windowWidth="27180" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,12 +97,6 @@
   </si>
   <si>
     <t>11:50 - 11:54</t>
-  </si>
-  <si>
-    <t>11:55 - 11:59</t>
-  </si>
-  <si>
-    <t>12:00 - 12:04</t>
   </si>
   <si>
     <t>*1. Покаяние*^
@@ -177,9 +171,6 @@
 НАШ ПРОМЫСЕЛ ЕСМЬ ПРОМЫСЕЛ, ПОДЧИНЁННЫЙ КАНОНАМ ВЕЧНОСТИ И СТРУКТУРЕ МИРОЗДАНИЯ!</t>
   </si>
   <si>
-    <t>Мы, Единый Народ России, обращаемся, к Создателю Мира сего, с просьбой помочь нам, очистить сознание порочной системы управления России, погрязшей в скверне и в грехах, несущей людям, Духовное, порабощение, а Мы, в свою очередь, накроем территорию России, Куполом ПервоЛюбви, для защиты от всех врагов, и сформируем, дарованным Нам Правом Свободной Воли, Пространство Высшей справедливости - Пространство Святой Руси!</t>
-  </si>
-  <si>
     <t>Так есмь и так будет навечно во всём Божественном Пространстве Святая Русь! Да будет Свет Истины!</t>
   </si>
   <si>
@@ -187,6 +178,15 @@
 Волею Создателя, Пророка и Народа^
 Пространство Святая Русь ЕСМЬ Равенство и Любовь Навечно!^
 Да будет Свет Истины!</t>
+  </si>
+  <si>
+    <t>Мы, Единый Народ России, обращаемся, к Создателю Мира сего, с просьбой помочь нам, очистить сознание порочной системы управления России, погрязшей в скверне и в грехах, несущей людям, Духовное, порабощение, а, Мы, в свою очередь, накроем территорию России, Куполом ПервоЛюбви, для защиты от всех врагов, и сформируем, дарованным Нам Правом Свободной Воли, Пространство Высшей справедливости - Пространство Святой Руси!</t>
+  </si>
+  <si>
+    <t>20:55 - 20:59</t>
+  </si>
+  <si>
+    <t>21:00 - 21:04</t>
   </si>
 </sst>
 </file>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="4" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -622,10 +622,13 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -636,10 +639,13 @@
       <c r="D9" t="s">
         <v>4</v>
       </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -650,10 +656,13 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -664,10 +673,13 @@
       <c r="D11" t="s">
         <v>4</v>
       </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -678,10 +690,13 @@
       <c r="D12" t="s">
         <v>4</v>
       </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -692,10 +707,13 @@
       <c r="D13" t="s">
         <v>4</v>
       </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -706,10 +724,13 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -720,10 +741,13 @@
       <c r="D15" t="s">
         <v>4</v>
       </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -734,10 +758,13 @@
       <c r="D16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -748,10 +775,13 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -762,10 +792,13 @@
       <c r="D18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -776,13 +809,16 @@
       <c r="D19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -790,13 +826,16 @@
       <c r="D20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
@@ -804,12 +843,15 @@
       <c r="D21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="C31" s="1"/>
     </row>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="410" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA226FF7-7130-4D9E-8E09-0F09EA9D5262}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36C87B35-C3EE-4F3F-B9C4-8E9F05B77FDF}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="780" windowWidth="27180" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,10 +183,10 @@
     <t>Мы, Единый Народ России, обращаемся, к Создателю Мира сего, с просьбой помочь нам, очистить сознание порочной системы управления России, погрязшей в скверне и в грехах, несущей людям, Духовное, порабощение, а, Мы, в свою очередь, накроем территорию России, Куполом ПервоЛюбви, для защиты от всех врагов, и сформируем, дарованным Нам Правом Свободной Воли, Пространство Высшей справедливости - Пространство Святой Руси!</t>
   </si>
   <si>
-    <t>20:55 - 20:59</t>
-  </si>
-  <si>
-    <t>21:00 - 21:04</t>
+    <t>21:15 - 21:19</t>
+  </si>
+  <si>
+    <t>21:20 - 21:24</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="413" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36C87B35-C3EE-4F3F-B9C4-8E9F05B77FDF}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8817B629-4685-418B-BF31-28CA13C5F43A}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="780" windowWidth="27180" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>19:00 - 19:04</t>
-  </si>
-  <si>
-    <t>["01", "04", "08", "13", "17", "22", "26", "30"]</t>
   </si>
   <si>
     <t>11:05 - 11:09</t>
@@ -183,10 +180,13 @@
     <t>Мы, Единый Народ России, обращаемся, к Создателю Мира сего, с просьбой помочь нам, очистить сознание порочной системы управления России, погрязшей в скверне и в грехах, несущей людям, Духовное, порабощение, а, Мы, в свою очередь, накроем территорию России, Куполом ПервоЛюбви, для защиты от всех врагов, и сформируем, дарованным Нам Правом Свободной Воли, Пространство Высшей справедливости - Пространство Святой Руси!</t>
   </si>
   <si>
-    <t>21:15 - 21:19</t>
-  </si>
-  <si>
-    <t>21:20 - 21:24</t>
+    <t>11:55 - 11:59</t>
+  </si>
+  <si>
+    <t>12:00 - 12:04</t>
+  </si>
+  <si>
+    <t>["01", "05", "08", "13", "17", "22", "26", "30"]</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="4" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -611,13 +611,13 @@
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -628,13 +628,13 @@
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -645,13 +645,13 @@
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -662,13 +662,13 @@
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -679,13 +679,13 @@
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -696,13 +696,13 @@
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -713,13 +713,13 @@
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -730,13 +730,13 @@
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -747,13 +747,13 @@
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -764,13 +764,13 @@
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -781,13 +781,13 @@
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -798,13 +798,13 @@
     </row>
     <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -815,13 +815,13 @@
     </row>
     <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -832,13 +832,13 @@
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8817B629-4685-418B-BF31-28CA13C5F43A}"/>
+  <xr:revisionPtr revIDLastSave="439" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B325E09-A3A4-45F2-AB48-C62229058B9A}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="780" windowWidth="27180" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>Текст:</t>
   </si>
@@ -180,13 +180,16 @@
     <t>Мы, Единый Народ России, обращаемся, к Создателю Мира сего, с просьбой помочь нам, очистить сознание порочной системы управления России, погрязшей в скверне и в грехах, несущей людям, Духовное, порабощение, а, Мы, в свою очередь, накроем территорию России, Куполом ПервоЛюбви, для защиты от всех врагов, и сформируем, дарованным Нам Правом Свободной Воли, Пространство Высшей справедливости - Пространство Святой Руси!</t>
   </si>
   <si>
-    <t>11:55 - 11:59</t>
-  </si>
-  <si>
-    <t>12:00 - 12:04</t>
-  </si>
-  <si>
     <t>["01", "05", "08", "13", "17", "22", "26", "30"]</t>
+  </si>
+  <si>
+    <t>["01", "04", "08", "10", "17", "22", "26", "30"]</t>
+  </si>
+  <si>
+    <t>18:15 - 18:19</t>
+  </si>
+  <si>
+    <t>18:20 - 18:24</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -634,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -651,7 +654,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -668,7 +671,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -685,7 +688,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -702,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -719,7 +722,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -736,7 +739,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -753,7 +756,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -770,7 +773,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -787,7 +790,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -804,7 +807,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -818,10 +821,10 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -835,10 +838,10 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="439" documentId="11_F25DC773A252ABDACC10487339DE66405BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B325E09-A3A4-45F2-AB48-C62229058B9A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959D1539-D7A6-4CD2-A378-F31166E93C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="780" windowWidth="27180" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>Текст:</t>
   </si>
@@ -66,6 +66,9 @@
     <t>19:00 - 19:04</t>
   </si>
   <si>
+    <t>["01", "04", "08", "13", "17", "22", "26", "30"]</t>
+  </si>
+  <si>
     <t>11:05 - 11:09</t>
   </si>
   <si>
@@ -94,6 +97,12 @@
   </si>
   <si>
     <t>11:50 - 11:54</t>
+  </si>
+  <si>
+    <t>11:55 - 11:59</t>
+  </si>
+  <si>
+    <t>12:00 - 12:04</t>
   </si>
   <si>
     <t>*1. Покаяние*^
@@ -177,19 +186,7 @@
 Да будет Свет Истины!</t>
   </si>
   <si>
-    <t>Мы, Единый Народ России, обращаемся, к Создателю Мира сего, с просьбой помочь нам, очистить сознание порочной системы управления России, погрязшей в скверне и в грехах, несущей людям, Духовное, порабощение, а, Мы, в свою очередь, накроем территорию России, Куполом ПервоЛюбви, для защиты от всех врагов, и сформируем, дарованным Нам Правом Свободной Воли, Пространство Высшей справедливости - Пространство Святой Руси!</t>
-  </si>
-  <si>
-    <t>["01", "05", "08", "13", "17", "22", "26", "30"]</t>
-  </si>
-  <si>
-    <t>["01", "04", "08", "10", "17", "22", "26", "30"]</t>
-  </si>
-  <si>
-    <t>18:15 - 18:19</t>
-  </si>
-  <si>
-    <t>18:20 - 18:24</t>
+    <t>Мы, Единый Народ России, обращаемся, к Создателю Мира сего, с просьбой, поручить нам управление Планетой в Шестой Эпохе, через Белого Царя, ибо формируется, Навечно, сотворчество людей-Богов с Создателем!</t>
   </si>
 </sst>
 </file>
@@ -514,7 +511,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A24" sqref="A24:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +542,7 @@
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -557,7 +554,7 @@
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -568,7 +565,7 @@
     </row>
     <row r="4" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -580,7 +577,7 @@
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -591,7 +588,7 @@
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -603,7 +600,7 @@
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -614,247 +611,205 @@
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
-      <c r="E21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="C31" s="1"/>
     </row>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959D1539-D7A6-4CD2-A378-F31166E93C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FFB88F-9CB9-4DF3-A196-4F7998984371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>19:00 - 19:04</t>
-  </si>
-  <si>
-    <t>["01", "04", "08", "13", "17", "22", "26", "30"]</t>
   </si>
   <si>
     <t>11:05 - 11:09</t>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Мы, Единый Народ России, обращаемся, к Создателю Мира сего, с просьбой, поручить нам управление Планетой в Шестой Эпохе, через Белого Царя, ибо формируется, Навечно, сотворчество людей-Богов с Создателем!</t>
+  </si>
+  <si>
+    <t>["01", "04", "08", "11", "17", "22", "26", "30"]</t>
   </si>
 </sst>
 </file>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="4" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -611,13 +611,13 @@
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -625,13 +625,13 @@
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -639,13 +639,13 @@
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -653,13 +653,13 @@
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -667,13 +667,13 @@
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -681,13 +681,13 @@
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -695,13 +695,13 @@
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -765,13 +765,13 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -779,13 +779,13 @@
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FFB88F-9CB9-4DF3-A196-4F7998984371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A47DD7-0D7E-4479-8845-9E3C54E840DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>19:00 - 19:04</t>
+  </si>
+  <si>
+    <t>["01", "04", "08", "13", "17", "22", "26", "30"]</t>
   </si>
   <si>
     <t>11:05 - 11:09</t>
@@ -183,10 +186,7 @@
 Да будет Свет Истины!</t>
   </si>
   <si>
-    <t>Мы, Единый Народ России, обращаемся, к Создателю Мира сего, с просьбой, поручить нам управление Планетой в Шестой Эпохе, через Белого Царя, ибо формируется, Навечно, сотворчество людей-Богов с Создателем!</t>
-  </si>
-  <si>
-    <t>["01", "04", "08", "11", "17", "22", "26", "30"]</t>
+    <t>Мы, Единый Народ России, обращаемся, к Создателю Мира сего, с просьбой, поручить нам управление Планетой в Шестой Эпохе, через Белого Царя, в соответствии, с Договором, навечно, между Создателем и Россией!</t>
   </si>
 </sst>
 </file>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="4" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -611,13 +611,13 @@
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -625,13 +625,13 @@
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -639,13 +639,13 @@
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -653,13 +653,13 @@
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -667,13 +667,13 @@
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -681,13 +681,13 @@
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -695,13 +695,13 @@
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -765,13 +765,13 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -779,13 +779,13 @@
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>

--- a/data-message.xlsx
+++ b/data-message.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\21\пониженая нагрузка\Экс\0ebc5838536ba6e021c8081da5cd7a1b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A47DD7-0D7E-4479-8845-9E3C54E840DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68930F39-A512-44E1-80C8-5C0A76393D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>Текст:</t>
   </si>
@@ -64,45 +64,6 @@
   </si>
   <si>
     <t>19:00 - 19:04</t>
-  </si>
-  <si>
-    <t>["01", "04", "08", "13", "17", "22", "26", "30"]</t>
-  </si>
-  <si>
-    <t>11:05 - 11:09</t>
-  </si>
-  <si>
-    <t>11:10 - 11:14</t>
-  </si>
-  <si>
-    <t>11:15 - 11:19</t>
-  </si>
-  <si>
-    <t>11:20 - 11:24</t>
-  </si>
-  <si>
-    <t>11:25 - 11:29</t>
-  </si>
-  <si>
-    <t>11:30 - 11:34</t>
-  </si>
-  <si>
-    <t>11:35 - 11:39</t>
-  </si>
-  <si>
-    <t>11:40 - 11:44</t>
-  </si>
-  <si>
-    <t>11:45 - 11:49</t>
-  </si>
-  <si>
-    <t>11:50 - 11:54</t>
-  </si>
-  <si>
-    <t>11:55 - 11:59</t>
-  </si>
-  <si>
-    <t>12:00 - 12:04</t>
   </si>
   <si>
     <t>*1. Покаяние*^
@@ -187,6 +148,51 @@
   </si>
   <si>
     <t>Мы, Единый Народ России, обращаемся, к Создателю Мира сего, с просьбой, поручить нам управление Планетой в Шестой Эпохе, через Белого Царя, в соответствии, с Договором, навечно, между Создателем и Россией!</t>
+  </si>
+  <si>
+    <t>21:05 - 21:09</t>
+  </si>
+  <si>
+    <t>21:10 - 21:14</t>
+  </si>
+  <si>
+    <t>21:15 - 21:19</t>
+  </si>
+  <si>
+    <t>21:20 - 21:24</t>
+  </si>
+  <si>
+    <t>21:25 - 21:29</t>
+  </si>
+  <si>
+    <t>21:30 - 21:34</t>
+  </si>
+  <si>
+    <t>21:35 - 21:39</t>
+  </si>
+  <si>
+    <t>21:40 - 21:44</t>
+  </si>
+  <si>
+    <t>21:45 - 21:49</t>
+  </si>
+  <si>
+    <t>21:50 - 21:54</t>
+  </si>
+  <si>
+    <t>21:55 - 21:59</t>
+  </si>
+  <si>
+    <t>22:00 - 22:04</t>
+  </si>
+  <si>
+    <t>["01", "04", "08", "12", "17", "22", "26", "30"]</t>
+  </si>
+  <si>
+    <t>21:00 - 21:04</t>
+  </si>
+  <si>
+    <t>20:55 - 20:59</t>
   </si>
 </sst>
 </file>
@@ -510,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +548,7 @@
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -554,7 +560,7 @@
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -565,7 +571,7 @@
     </row>
     <row r="4" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -577,7 +583,7 @@
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -588,7 +594,7 @@
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -600,7 +606,7 @@
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -611,13 +617,13 @@
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -625,13 +631,13 @@
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -639,13 +645,13 @@
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -653,13 +659,13 @@
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -667,13 +673,13 @@
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -681,13 +687,13 @@
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -695,13 +701,13 @@
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -709,13 +715,13 @@
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -723,13 +729,13 @@
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -737,13 +743,13 @@
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -751,13 +757,13 @@
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -765,13 +771,13 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -779,13 +785,13 @@
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -793,13 +799,13 @@
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
